--- a/Dispa-SET/Simulation/InputDispa-SET - StorageOutflow.xlsx
+++ b/Dispa-SET/Simulation/InputDispa-SET - StorageOutflow.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t>1</t>
   </si>
@@ -662,78 +662,6 @@
   </si>
   <si>
     <t>216</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>240</t>
   </si>
   <si>
     <t>[45, 46, 49] - HUSTO - WA - z2</t>
@@ -1098,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IG7"/>
+  <dimension ref="A1:HI7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
@@ -1112,12 +1040,12 @@
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:241">
+    <row r="1" spans="1:217">
       <c r="A1" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:241">
+    <row r="2" spans="1:217">
       <c r="B2">
         <v>2012</v>
       </c>
@@ -1766,80 +1694,8 @@
       <c r="HI2">
         <v>2012</v>
       </c>
-      <c r="HJ2">
-        <v>2012</v>
-      </c>
-      <c r="HK2">
-        <v>2012</v>
-      </c>
-      <c r="HL2">
-        <v>2012</v>
-      </c>
-      <c r="HM2">
-        <v>2012</v>
-      </c>
-      <c r="HN2">
-        <v>2012</v>
-      </c>
-      <c r="HO2">
-        <v>2012</v>
-      </c>
-      <c r="HP2">
-        <v>2012</v>
-      </c>
-      <c r="HQ2">
-        <v>2012</v>
-      </c>
-      <c r="HR2">
-        <v>2012</v>
-      </c>
-      <c r="HS2">
-        <v>2012</v>
-      </c>
-      <c r="HT2">
-        <v>2012</v>
-      </c>
-      <c r="HU2">
-        <v>2012</v>
-      </c>
-      <c r="HV2">
-        <v>2012</v>
-      </c>
-      <c r="HW2">
-        <v>2012</v>
-      </c>
-      <c r="HX2">
-        <v>2012</v>
-      </c>
-      <c r="HY2">
-        <v>2012</v>
-      </c>
-      <c r="HZ2">
-        <v>2012</v>
-      </c>
-      <c r="IA2">
-        <v>2012</v>
-      </c>
-      <c r="IB2">
-        <v>2012</v>
-      </c>
-      <c r="IC2">
-        <v>2012</v>
-      </c>
-      <c r="ID2">
-        <v>2012</v>
-      </c>
-      <c r="IE2">
-        <v>2012</v>
-      </c>
-      <c r="IF2">
-        <v>2012</v>
-      </c>
-      <c r="IG2">
-        <v>2012</v>
-      </c>
     </row>
-    <row r="3" spans="1:241">
+    <row r="3" spans="1:217">
       <c r="B3">
         <v>10</v>
       </c>
@@ -2488,80 +2344,8 @@
       <c r="HI3">
         <v>10</v>
       </c>
-      <c r="HJ3">
-        <v>10</v>
-      </c>
-      <c r="HK3">
-        <v>10</v>
-      </c>
-      <c r="HL3">
-        <v>10</v>
-      </c>
-      <c r="HM3">
-        <v>10</v>
-      </c>
-      <c r="HN3">
-        <v>10</v>
-      </c>
-      <c r="HO3">
-        <v>10</v>
-      </c>
-      <c r="HP3">
-        <v>10</v>
-      </c>
-      <c r="HQ3">
-        <v>10</v>
-      </c>
-      <c r="HR3">
-        <v>10</v>
-      </c>
-      <c r="HS3">
-        <v>10</v>
-      </c>
-      <c r="HT3">
-        <v>10</v>
-      </c>
-      <c r="HU3">
-        <v>10</v>
-      </c>
-      <c r="HV3">
-        <v>10</v>
-      </c>
-      <c r="HW3">
-        <v>10</v>
-      </c>
-      <c r="HX3">
-        <v>10</v>
-      </c>
-      <c r="HY3">
-        <v>10</v>
-      </c>
-      <c r="HZ3">
-        <v>10</v>
-      </c>
-      <c r="IA3">
-        <v>10</v>
-      </c>
-      <c r="IB3">
-        <v>10</v>
-      </c>
-      <c r="IC3">
-        <v>10</v>
-      </c>
-      <c r="ID3">
-        <v>10</v>
-      </c>
-      <c r="IE3">
-        <v>10</v>
-      </c>
-      <c r="IF3">
-        <v>10</v>
-      </c>
-      <c r="IG3">
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" spans="1:241">
+    <row r="4" spans="1:217">
       <c r="B4">
         <v>1</v>
       </c>
@@ -3210,80 +2994,8 @@
       <c r="HI4">
         <v>9</v>
       </c>
-      <c r="HJ4">
-        <v>10</v>
-      </c>
-      <c r="HK4">
-        <v>10</v>
-      </c>
-      <c r="HL4">
-        <v>10</v>
-      </c>
-      <c r="HM4">
-        <v>10</v>
-      </c>
-      <c r="HN4">
-        <v>10</v>
-      </c>
-      <c r="HO4">
-        <v>10</v>
-      </c>
-      <c r="HP4">
-        <v>10</v>
-      </c>
-      <c r="HQ4">
-        <v>10</v>
-      </c>
-      <c r="HR4">
-        <v>10</v>
-      </c>
-      <c r="HS4">
-        <v>10</v>
-      </c>
-      <c r="HT4">
-        <v>10</v>
-      </c>
-      <c r="HU4">
-        <v>10</v>
-      </c>
-      <c r="HV4">
-        <v>10</v>
-      </c>
-      <c r="HW4">
-        <v>10</v>
-      </c>
-      <c r="HX4">
-        <v>10</v>
-      </c>
-      <c r="HY4">
-        <v>10</v>
-      </c>
-      <c r="HZ4">
-        <v>10</v>
-      </c>
-      <c r="IA4">
-        <v>10</v>
-      </c>
-      <c r="IB4">
-        <v>10</v>
-      </c>
-      <c r="IC4">
-        <v>10</v>
-      </c>
-      <c r="ID4">
-        <v>10</v>
-      </c>
-      <c r="IE4">
-        <v>10</v>
-      </c>
-      <c r="IF4">
-        <v>10</v>
-      </c>
-      <c r="IG4">
-        <v>10</v>
-      </c>
     </row>
-    <row r="5" spans="1:241">
+    <row r="5" spans="1:217">
       <c r="B5">
         <v>1</v>
       </c>
@@ -3932,80 +3644,8 @@
       <c r="HI5">
         <v>24</v>
       </c>
-      <c r="HJ5">
-        <v>1</v>
-      </c>
-      <c r="HK5">
-        <v>2</v>
-      </c>
-      <c r="HL5">
-        <v>3</v>
-      </c>
-      <c r="HM5">
-        <v>4</v>
-      </c>
-      <c r="HN5">
-        <v>5</v>
-      </c>
-      <c r="HO5">
-        <v>6</v>
-      </c>
-      <c r="HP5">
-        <v>7</v>
-      </c>
-      <c r="HQ5">
-        <v>8</v>
-      </c>
-      <c r="HR5">
-        <v>9</v>
-      </c>
-      <c r="HS5">
-        <v>10</v>
-      </c>
-      <c r="HT5">
-        <v>11</v>
-      </c>
-      <c r="HU5">
-        <v>12</v>
-      </c>
-      <c r="HV5">
-        <v>13</v>
-      </c>
-      <c r="HW5">
-        <v>14</v>
-      </c>
-      <c r="HX5">
-        <v>15</v>
-      </c>
-      <c r="HY5">
-        <v>16</v>
-      </c>
-      <c r="HZ5">
-        <v>17</v>
-      </c>
-      <c r="IA5">
-        <v>18</v>
-      </c>
-      <c r="IB5">
-        <v>19</v>
-      </c>
-      <c r="IC5">
-        <v>20</v>
-      </c>
-      <c r="ID5">
-        <v>21</v>
-      </c>
-      <c r="IE5">
-        <v>22</v>
-      </c>
-      <c r="IF5">
-        <v>23</v>
-      </c>
-      <c r="IG5">
-        <v>24</v>
-      </c>
     </row>
-    <row r="6" spans="1:241">
+    <row r="6" spans="1:217">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -4654,83 +4294,11 @@
       <c r="HI6" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="HJ6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:217">
+      <c r="A7" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="HK6" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="HL6" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="HM6" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="HN6" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="HO6" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="HP6" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="HQ6" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="HR6" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="HS6" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="HT6" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="HU6" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="HV6" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="HW6" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="HX6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="HY6" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="HZ6" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="IA6" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="IB6" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="IC6" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="ID6" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="IE6" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="IF6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="IG6" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:241">
-      <c r="A7" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
@@ -5377,78 +4945,6 @@
         <v>0</v>
       </c>
       <c r="HI7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HJ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HK7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HL7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HM7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HN7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HO7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HP7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HQ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HR7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HS7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HT7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HU7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HV7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HW7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HX7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HY7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HZ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="IA7" s="2">
-        <v>0</v>
-      </c>
-      <c r="IB7" s="2">
-        <v>0</v>
-      </c>
-      <c r="IC7" s="2">
-        <v>0</v>
-      </c>
-      <c r="ID7" s="2">
-        <v>0</v>
-      </c>
-      <c r="IE7" s="2">
-        <v>0</v>
-      </c>
-      <c r="IF7" s="2">
-        <v>0</v>
-      </c>
-      <c r="IG7" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Dispa-SET/Simulation/InputDispa-SET - StorageOutflow.xlsx
+++ b/Dispa-SET/Simulation/InputDispa-SET - StorageOutflow.xlsx
@@ -726,12 +726,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4299,652 +4298,652 @@
       <c r="A7" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CE7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CI7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CK7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CL7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CM7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CN7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CO7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CQ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CS7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CT7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CU7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CV7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CW7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CX7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CY7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CZ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="DA7" s="2">
-        <v>0</v>
-      </c>
-      <c r="DB7" s="2">
-        <v>0</v>
-      </c>
-      <c r="DC7" s="2">
-        <v>0</v>
-      </c>
-      <c r="DD7" s="2">
-        <v>0</v>
-      </c>
-      <c r="DE7" s="2">
-        <v>0</v>
-      </c>
-      <c r="DF7" s="2">
-        <v>0</v>
-      </c>
-      <c r="DG7" s="2">
-        <v>0</v>
-      </c>
-      <c r="DH7" s="2">
-        <v>0</v>
-      </c>
-      <c r="DI7" s="2">
-        <v>0</v>
-      </c>
-      <c r="DJ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="DK7" s="2">
-        <v>0</v>
-      </c>
-      <c r="DL7" s="2">
-        <v>0</v>
-      </c>
-      <c r="DM7" s="2">
-        <v>0</v>
-      </c>
-      <c r="DN7" s="2">
-        <v>0</v>
-      </c>
-      <c r="DO7" s="2">
-        <v>0</v>
-      </c>
-      <c r="DP7" s="2">
-        <v>0</v>
-      </c>
-      <c r="DQ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="DR7" s="2">
-        <v>0</v>
-      </c>
-      <c r="DS7" s="2">
-        <v>0</v>
-      </c>
-      <c r="DT7" s="2">
-        <v>0</v>
-      </c>
-      <c r="DU7" s="2">
-        <v>0</v>
-      </c>
-      <c r="DV7" s="2">
-        <v>0</v>
-      </c>
-      <c r="DW7" s="2">
-        <v>0</v>
-      </c>
-      <c r="DX7" s="2">
-        <v>0</v>
-      </c>
-      <c r="DY7" s="2">
-        <v>0</v>
-      </c>
-      <c r="DZ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="EA7" s="2">
-        <v>0</v>
-      </c>
-      <c r="EB7" s="2">
-        <v>0</v>
-      </c>
-      <c r="EC7" s="2">
-        <v>0</v>
-      </c>
-      <c r="ED7" s="2">
-        <v>0</v>
-      </c>
-      <c r="EE7" s="2">
-        <v>0</v>
-      </c>
-      <c r="EF7" s="2">
-        <v>0</v>
-      </c>
-      <c r="EG7" s="2">
-        <v>0</v>
-      </c>
-      <c r="EH7" s="2">
-        <v>0</v>
-      </c>
-      <c r="EI7" s="2">
-        <v>0</v>
-      </c>
-      <c r="EJ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="EK7" s="2">
-        <v>0</v>
-      </c>
-      <c r="EL7" s="2">
-        <v>0</v>
-      </c>
-      <c r="EM7" s="2">
-        <v>0</v>
-      </c>
-      <c r="EN7" s="2">
-        <v>0</v>
-      </c>
-      <c r="EO7" s="2">
-        <v>0</v>
-      </c>
-      <c r="EP7" s="2">
-        <v>0</v>
-      </c>
-      <c r="EQ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="ER7" s="2">
-        <v>0</v>
-      </c>
-      <c r="ES7" s="2">
-        <v>0</v>
-      </c>
-      <c r="ET7" s="2">
-        <v>0</v>
-      </c>
-      <c r="EU7" s="2">
-        <v>0</v>
-      </c>
-      <c r="EV7" s="2">
-        <v>0</v>
-      </c>
-      <c r="EW7" s="2">
-        <v>0</v>
-      </c>
-      <c r="EX7" s="2">
-        <v>0</v>
-      </c>
-      <c r="EY7" s="2">
-        <v>0</v>
-      </c>
-      <c r="EZ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="FA7" s="2">
-        <v>0</v>
-      </c>
-      <c r="FB7" s="2">
-        <v>0</v>
-      </c>
-      <c r="FC7" s="2">
-        <v>0</v>
-      </c>
-      <c r="FD7" s="2">
-        <v>0</v>
-      </c>
-      <c r="FE7" s="2">
-        <v>0</v>
-      </c>
-      <c r="FF7" s="2">
-        <v>0</v>
-      </c>
-      <c r="FG7" s="2">
-        <v>0</v>
-      </c>
-      <c r="FH7" s="2">
-        <v>0</v>
-      </c>
-      <c r="FI7" s="2">
-        <v>0</v>
-      </c>
-      <c r="FJ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="FK7" s="2">
-        <v>0</v>
-      </c>
-      <c r="FL7" s="2">
-        <v>0</v>
-      </c>
-      <c r="FM7" s="2">
-        <v>0</v>
-      </c>
-      <c r="FN7" s="2">
-        <v>0</v>
-      </c>
-      <c r="FO7" s="2">
-        <v>0</v>
-      </c>
-      <c r="FP7" s="2">
-        <v>0</v>
-      </c>
-      <c r="FQ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="FR7" s="2">
-        <v>0</v>
-      </c>
-      <c r="FS7" s="2">
-        <v>0</v>
-      </c>
-      <c r="FT7" s="2">
-        <v>0</v>
-      </c>
-      <c r="FU7" s="2">
-        <v>0</v>
-      </c>
-      <c r="FV7" s="2">
-        <v>0</v>
-      </c>
-      <c r="FW7" s="2">
-        <v>0</v>
-      </c>
-      <c r="FX7" s="2">
-        <v>0</v>
-      </c>
-      <c r="FY7" s="2">
-        <v>0</v>
-      </c>
-      <c r="FZ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="GA7" s="2">
-        <v>0</v>
-      </c>
-      <c r="GB7" s="2">
-        <v>0</v>
-      </c>
-      <c r="GC7" s="2">
-        <v>0</v>
-      </c>
-      <c r="GD7" s="2">
-        <v>0</v>
-      </c>
-      <c r="GE7" s="2">
-        <v>0</v>
-      </c>
-      <c r="GF7" s="2">
-        <v>0</v>
-      </c>
-      <c r="GG7" s="2">
-        <v>0</v>
-      </c>
-      <c r="GH7" s="2">
-        <v>0</v>
-      </c>
-      <c r="GI7" s="2">
-        <v>0</v>
-      </c>
-      <c r="GJ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="GK7" s="2">
-        <v>0</v>
-      </c>
-      <c r="GL7" s="2">
-        <v>0</v>
-      </c>
-      <c r="GM7" s="2">
-        <v>0</v>
-      </c>
-      <c r="GN7" s="2">
-        <v>0</v>
-      </c>
-      <c r="GO7" s="2">
-        <v>0</v>
-      </c>
-      <c r="GP7" s="2">
-        <v>0</v>
-      </c>
-      <c r="GQ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="GR7" s="2">
-        <v>0</v>
-      </c>
-      <c r="GS7" s="2">
-        <v>0</v>
-      </c>
-      <c r="GT7" s="2">
-        <v>0</v>
-      </c>
-      <c r="GU7" s="2">
-        <v>0</v>
-      </c>
-      <c r="GV7" s="2">
-        <v>0</v>
-      </c>
-      <c r="GW7" s="2">
-        <v>0</v>
-      </c>
-      <c r="GX7" s="2">
-        <v>0</v>
-      </c>
-      <c r="GY7" s="2">
-        <v>0</v>
-      </c>
-      <c r="GZ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HA7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HB7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HC7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HD7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HE7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HF7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HG7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HH7" s="2">
-        <v>0</v>
-      </c>
-      <c r="HI7" s="2">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
+        <v>0</v>
+      </c>
+      <c r="CO7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CT7">
+        <v>0</v>
+      </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CW7">
+        <v>0</v>
+      </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CY7">
+        <v>0</v>
+      </c>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DA7">
+        <v>0</v>
+      </c>
+      <c r="DB7">
+        <v>0</v>
+      </c>
+      <c r="DC7">
+        <v>0</v>
+      </c>
+      <c r="DD7">
+        <v>0</v>
+      </c>
+      <c r="DE7">
+        <v>0</v>
+      </c>
+      <c r="DF7">
+        <v>0</v>
+      </c>
+      <c r="DG7">
+        <v>0</v>
+      </c>
+      <c r="DH7">
+        <v>0</v>
+      </c>
+      <c r="DI7">
+        <v>0</v>
+      </c>
+      <c r="DJ7">
+        <v>0</v>
+      </c>
+      <c r="DK7">
+        <v>0</v>
+      </c>
+      <c r="DL7">
+        <v>0</v>
+      </c>
+      <c r="DM7">
+        <v>0</v>
+      </c>
+      <c r="DN7">
+        <v>0</v>
+      </c>
+      <c r="DO7">
+        <v>0</v>
+      </c>
+      <c r="DP7">
+        <v>0</v>
+      </c>
+      <c r="DQ7">
+        <v>0</v>
+      </c>
+      <c r="DR7">
+        <v>0</v>
+      </c>
+      <c r="DS7">
+        <v>0</v>
+      </c>
+      <c r="DT7">
+        <v>0</v>
+      </c>
+      <c r="DU7">
+        <v>0</v>
+      </c>
+      <c r="DV7">
+        <v>0</v>
+      </c>
+      <c r="DW7">
+        <v>0</v>
+      </c>
+      <c r="DX7">
+        <v>0</v>
+      </c>
+      <c r="DY7">
+        <v>0</v>
+      </c>
+      <c r="DZ7">
+        <v>0</v>
+      </c>
+      <c r="EA7">
+        <v>0</v>
+      </c>
+      <c r="EB7">
+        <v>0</v>
+      </c>
+      <c r="EC7">
+        <v>0</v>
+      </c>
+      <c r="ED7">
+        <v>0</v>
+      </c>
+      <c r="EE7">
+        <v>0</v>
+      </c>
+      <c r="EF7">
+        <v>0</v>
+      </c>
+      <c r="EG7">
+        <v>0</v>
+      </c>
+      <c r="EH7">
+        <v>0</v>
+      </c>
+      <c r="EI7">
+        <v>0</v>
+      </c>
+      <c r="EJ7">
+        <v>0</v>
+      </c>
+      <c r="EK7">
+        <v>0</v>
+      </c>
+      <c r="EL7">
+        <v>0</v>
+      </c>
+      <c r="EM7">
+        <v>0</v>
+      </c>
+      <c r="EN7">
+        <v>0</v>
+      </c>
+      <c r="EO7">
+        <v>0</v>
+      </c>
+      <c r="EP7">
+        <v>0</v>
+      </c>
+      <c r="EQ7">
+        <v>0</v>
+      </c>
+      <c r="ER7">
+        <v>0</v>
+      </c>
+      <c r="ES7">
+        <v>0</v>
+      </c>
+      <c r="ET7">
+        <v>0</v>
+      </c>
+      <c r="EU7">
+        <v>0</v>
+      </c>
+      <c r="EV7">
+        <v>0</v>
+      </c>
+      <c r="EW7">
+        <v>0</v>
+      </c>
+      <c r="EX7">
+        <v>0</v>
+      </c>
+      <c r="EY7">
+        <v>0</v>
+      </c>
+      <c r="EZ7">
+        <v>0</v>
+      </c>
+      <c r="FA7">
+        <v>0</v>
+      </c>
+      <c r="FB7">
+        <v>0</v>
+      </c>
+      <c r="FC7">
+        <v>0</v>
+      </c>
+      <c r="FD7">
+        <v>0</v>
+      </c>
+      <c r="FE7">
+        <v>0</v>
+      </c>
+      <c r="FF7">
+        <v>0</v>
+      </c>
+      <c r="FG7">
+        <v>0</v>
+      </c>
+      <c r="FH7">
+        <v>0</v>
+      </c>
+      <c r="FI7">
+        <v>0</v>
+      </c>
+      <c r="FJ7">
+        <v>0</v>
+      </c>
+      <c r="FK7">
+        <v>0</v>
+      </c>
+      <c r="FL7">
+        <v>0</v>
+      </c>
+      <c r="FM7">
+        <v>0</v>
+      </c>
+      <c r="FN7">
+        <v>0</v>
+      </c>
+      <c r="FO7">
+        <v>0</v>
+      </c>
+      <c r="FP7">
+        <v>0</v>
+      </c>
+      <c r="FQ7">
+        <v>0</v>
+      </c>
+      <c r="FR7">
+        <v>0</v>
+      </c>
+      <c r="FS7">
+        <v>0</v>
+      </c>
+      <c r="FT7">
+        <v>0</v>
+      </c>
+      <c r="FU7">
+        <v>0</v>
+      </c>
+      <c r="FV7">
+        <v>0</v>
+      </c>
+      <c r="FW7">
+        <v>0</v>
+      </c>
+      <c r="FX7">
+        <v>0</v>
+      </c>
+      <c r="FY7">
+        <v>0</v>
+      </c>
+      <c r="FZ7">
+        <v>0</v>
+      </c>
+      <c r="GA7">
+        <v>0</v>
+      </c>
+      <c r="GB7">
+        <v>0</v>
+      </c>
+      <c r="GC7">
+        <v>0</v>
+      </c>
+      <c r="GD7">
+        <v>0</v>
+      </c>
+      <c r="GE7">
+        <v>0</v>
+      </c>
+      <c r="GF7">
+        <v>0</v>
+      </c>
+      <c r="GG7">
+        <v>0</v>
+      </c>
+      <c r="GH7">
+        <v>0</v>
+      </c>
+      <c r="GI7">
+        <v>0</v>
+      </c>
+      <c r="GJ7">
+        <v>0</v>
+      </c>
+      <c r="GK7">
+        <v>0</v>
+      </c>
+      <c r="GL7">
+        <v>0</v>
+      </c>
+      <c r="GM7">
+        <v>0</v>
+      </c>
+      <c r="GN7">
+        <v>0</v>
+      </c>
+      <c r="GO7">
+        <v>0</v>
+      </c>
+      <c r="GP7">
+        <v>0</v>
+      </c>
+      <c r="GQ7">
+        <v>0</v>
+      </c>
+      <c r="GR7">
+        <v>0</v>
+      </c>
+      <c r="GS7">
+        <v>0</v>
+      </c>
+      <c r="GT7">
+        <v>0</v>
+      </c>
+      <c r="GU7">
+        <v>0</v>
+      </c>
+      <c r="GV7">
+        <v>0</v>
+      </c>
+      <c r="GW7">
+        <v>0</v>
+      </c>
+      <c r="GX7">
+        <v>0</v>
+      </c>
+      <c r="GY7">
+        <v>0</v>
+      </c>
+      <c r="GZ7">
+        <v>0</v>
+      </c>
+      <c r="HA7">
+        <v>0</v>
+      </c>
+      <c r="HB7">
+        <v>0</v>
+      </c>
+      <c r="HC7">
+        <v>0</v>
+      </c>
+      <c r="HD7">
+        <v>0</v>
+      </c>
+      <c r="HE7">
+        <v>0</v>
+      </c>
+      <c r="HF7">
+        <v>0</v>
+      </c>
+      <c r="HG7">
+        <v>0</v>
+      </c>
+      <c r="HH7">
+        <v>0</v>
+      </c>
+      <c r="HI7">
         <v>0</v>
       </c>
     </row>
